--- a/sql/数据库字段表.xlsx
+++ b/sql/数据库字段表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15787\Desktop\2026-1\软件工程\sql备份\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15787\Desktop\2026-1\SE\project\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB34723-7145-4E8E-A36E-BFECCA06886A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B107B8-B6E5-4C84-95D8-BBD598B66D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25840" windowHeight="15520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="teachers" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="94">
   <si>
     <t>字段</t>
   </si>
@@ -218,10 +218,6 @@
   </si>
   <si>
     <t>授课教师ID，依赖于teacher表的外码teachers.id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>记录ID，后端控制自增</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -600,6 +596,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -607,15 +612,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -920,10 +916,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:D82"/>
+  <dimension ref="B1:D81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -936,11 +932,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="10"/>
+      <c r="B1" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
@@ -961,7 +957,7 @@
         <v>37</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
@@ -1021,13 +1017,13 @@
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
@@ -1043,7 +1039,7 @@
     </row>
     <row r="11" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>46</v>
@@ -1054,11 +1050,11 @@
     </row>
     <row r="12" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="10"/>
+      <c r="B13" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="13"/>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
@@ -1079,7 +1075,7 @@
         <v>37</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
@@ -1145,18 +1141,18 @@
         <v>37</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>46</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
@@ -1172,7 +1168,7 @@
     </row>
     <row r="24" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>46</v>
@@ -1183,11 +1179,11 @@
     </row>
     <row r="25" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="13"/>
+      <c r="B26" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="10"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
@@ -1208,7 +1204,7 @@
         <v>37</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
@@ -1235,7 +1231,7 @@
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>51</v>
@@ -1246,7 +1242,7 @@
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>41</v>
@@ -1279,7 +1275,7 @@
     </row>
     <row r="35" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>13</v>
@@ -1290,11 +1286,11 @@
     </row>
     <row r="36" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C37" s="12"/>
-      <c r="D37" s="13"/>
+      <c r="B37" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="9"/>
+      <c r="D37" s="10"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="s">
@@ -1309,290 +1305,290 @@
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C42" s="6" t="s">
+      <c r="C41" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D41" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C43" s="9"/>
+      <c r="D43" s="10"/>
+    </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C44" s="12"/>
-      <c r="D44" s="13"/>
+      <c r="B44" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" s="3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>2</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46" s="3" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" s="3" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" s="3" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" s="3" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B50" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D50" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C51" s="6" t="s">
+    <row r="50" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C50" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="D50" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="51" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C52" s="9"/>
+      <c r="D52" s="10"/>
+    </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B53" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C53" s="12"/>
-      <c r="D53" s="13"/>
+      <c r="B53" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" s="3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>2</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" s="3" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" s="3" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58" s="3" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B59" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C59" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C59" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D59" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D60" s="7" t="s">
+      <c r="D59" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B61" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61" s="9"/>
+      <c r="D61" s="10"/>
+    </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B62" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C62" s="12"/>
-      <c r="D62" s="13"/>
+      <c r="B62" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B63" s="3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>2</v>
+        <v>72</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B64" s="3" t="s">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65" s="3" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" s="3" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B67" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B68" s="3" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
@@ -1603,122 +1599,111 @@
         <v>51</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B70" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D70" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="71" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C71" s="6" t="s">
+    <row r="70" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C70" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D71" s="7" t="s">
+      <c r="D70" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="72" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="71" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B72" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C72" s="9"/>
+      <c r="D72" s="10"/>
+    </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B73" s="11" t="s">
+      <c r="B73" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B76" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C73" s="12"/>
-      <c r="D73" s="13"/>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B74" s="3" t="s">
+      <c r="C76" s="9"/>
+      <c r="D76" s="10"/>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B77" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C77" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D74" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="75" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="5" t="s">
+      <c r="D77" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C75" s="6" t="s">
+      <c r="C78" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D75" s="7" t="s">
+      <c r="D78" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="76" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B77" s="11" t="s">
+    <row r="79" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B80" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C77" s="12"/>
-      <c r="D77" s="13"/>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B78" s="3" t="s">
+      <c r="C80" s="9"/>
+      <c r="D80" s="10"/>
+    </row>
+    <row r="81" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C81" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D78" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="79" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D79" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="80" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B81" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="C81" s="12"/>
-      <c r="D81" s="13"/>
-    </row>
-    <row r="82" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D82" s="7" t="s">
+      <c r="D81" s="7" t="s">
         <v>52</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B61:D61"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B76:D76"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/sql/数据库字段表.xlsx
+++ b/sql/数据库字段表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15787\Desktop\2026-1\SE\project\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B107B8-B6E5-4C84-95D8-BBD598B66D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB14F489-39E3-4621-9BAB-840D05BDFE2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="99">
   <si>
     <t>字段</t>
   </si>
@@ -358,6 +358,26 @@
   </si>
   <si>
     <t>登录时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作业ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI要评测的运动类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI模型表（AI_type）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -916,10 +936,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:D81"/>
+  <dimension ref="B1:D85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J45" sqref="J45"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="G83" sqref="G83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1637,7 +1657,7 @@
         <v>39</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="D74" s="7" t="s">
         <v>40</v>
@@ -1692,8 +1712,39 @@
         <v>52</v>
       </c>
     </row>
+    <row r="82" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B83" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C83" s="12"/>
+      <c r="D83" s="13"/>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B84" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="B83:D83"/>
     <mergeCell ref="B80:D80"/>
     <mergeCell ref="B61:D61"/>
     <mergeCell ref="B13:D13"/>
